--- a/StructureDefinition-pco-what-matters-statement.xlsx
+++ b/StructureDefinition-pco-what-matters-statement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>Indicates the person-centered outcomes observation is of type survey</t>
+  </si>
+  <si>
+    <t>Include 'survey' category to facilitate searching for this Observation as a kind of Assessment</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
@@ -3826,9 +3829,11 @@
       <c r="X17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y17" s="2"/>
+      <c r="Y17" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3881,14 +3886,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3910,16 +3915,16 @@
         <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3948,7 +3953,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -3966,7 +3971,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>92</v>
@@ -3981,30 +3986,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4027,19 +4032,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4088,7 +4093,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4103,19 +4108,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4123,10 +4128,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4149,16 +4154,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4208,7 +4213,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4229,13 +4234,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4243,14 +4248,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4269,19 +4274,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4330,7 +4335,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4345,19 +4350,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4365,14 +4370,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4391,19 +4396,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4452,7 +4457,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4467,19 +4472,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4487,10 +4492,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4513,16 +4518,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4572,7 +4577,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4593,13 +4598,13 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4607,10 +4612,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4633,17 +4638,17 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4692,7 +4697,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4707,19 +4712,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4727,10 +4732,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4753,19 +4758,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4814,7 +4819,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4823,7 +4828,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4832,27 +4837,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4878,16 +4883,16 @@
         <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4912,13 +4917,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4936,7 +4941,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4945,7 +4950,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4960,7 +4965,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4971,14 +4976,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5000,16 +5005,16 @@
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5034,13 +5039,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5058,7 +5063,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5076,27 +5081,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5119,19 +5124,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5180,7 +5185,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5201,10 +5206,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5215,10 +5220,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5244,13 +5249,13 @@
         <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5276,13 +5281,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5300,7 +5305,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5318,27 +5323,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5364,16 +5369,16 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5398,13 +5403,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5422,7 +5427,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5443,10 +5448,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5457,10 +5462,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5483,16 +5488,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5542,7 +5547,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5560,27 +5565,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5603,16 +5608,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5662,7 +5667,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5680,27 +5685,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5723,19 +5728,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5784,7 +5789,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5796,7 +5801,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5805,10 +5810,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5819,10 +5824,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5845,13 +5850,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5902,7 +5907,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5926,7 +5931,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5937,10 +5942,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5969,7 +5974,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -6022,7 +6027,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6046,7 +6051,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6057,14 +6062,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6086,10 +6091,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6144,7 +6149,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6179,10 +6184,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6205,13 +6210,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6262,7 +6267,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6271,7 +6276,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6283,10 +6288,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6297,10 +6302,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6323,13 +6328,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6380,7 +6385,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6389,7 +6394,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6401,10 +6406,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6415,10 +6420,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6444,16 +6449,16 @@
         <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6481,10 +6486,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6502,7 +6507,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6520,13 +6525,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6537,10 +6542,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6566,16 +6571,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6600,13 +6605,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6624,7 +6629,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6642,13 +6647,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6659,10 +6664,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6685,17 +6690,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6744,7 +6749,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6768,7 +6773,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6779,10 +6784,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6805,13 +6810,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6862,7 +6867,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6883,10 +6888,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6897,10 +6902,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6923,16 +6928,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6982,7 +6987,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7003,10 +7008,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7017,10 +7022,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7043,16 +7048,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7102,7 +7107,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7123,10 +7128,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7137,10 +7142,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7163,19 +7168,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7224,7 +7229,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7245,10 +7250,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7259,10 +7264,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7285,13 +7290,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7342,7 +7347,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7366,7 +7371,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7377,10 +7382,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7409,7 +7414,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7462,7 +7467,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7486,7 +7491,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7497,14 +7502,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7526,10 +7531,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7584,7 +7589,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7619,10 +7624,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7648,16 +7653,16 @@
         <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7682,13 +7687,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7706,7 +7711,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7724,16 +7729,16 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7741,10 +7746,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7767,19 +7772,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7828,7 +7833,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7846,27 +7851,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7892,16 +7897,16 @@
         <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7926,13 +7931,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7950,7 +7955,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7959,7 +7964,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7974,7 +7979,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -7985,14 +7990,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8014,16 +8019,16 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8048,13 +8053,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8072,7 +8077,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8090,27 +8095,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8136,16 +8141,16 @@
         <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8194,7 +8199,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8215,10 +8220,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-what-matters-statement.xlsx
+++ b/StructureDefinition-pco-what-matters-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-statement.xlsx
+++ b/StructureDefinition-pco-what-matters-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-statement.xlsx
+++ b/StructureDefinition-pco-what-matters-statement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -609,6 +609,9 @@
     <t>Observation.category</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
@@ -622,7 +625,7 @@
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
   </si>
   <si>
-    <t>To identify that observation is derived from a questionnaire or other assessment instrument.</t>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -650,7 +653,12 @@
     <t>us-core</t>
   </si>
   <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="survey"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
@@ -659,19 +667,16 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
-    <t>Observation.category:survey</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>Indicates the person-centered outcomes observation is of type survey</t>
-  </si>
-  <si>
-    <t>Include 'survey' category to facilitate searching for this Observation as a kind of Assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
+    <t>Observation.category:wellbeing-domain</t>
+  </si>
+  <si>
+    <t>wellbeing-domain</t>
+  </si>
+  <si>
+    <t>Well-Being domain category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -681,7 +686,7 @@
 </t>
   </si>
   <si>
-    <t>Focus area for What Matters assessment</t>
+    <t>Statement about this category of well-being</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -693,7 +698,15 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-focus-areas</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
+    &lt;code value="wellbeing-statement"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1407,9 +1420,6 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1785,7 +1795,7 @@
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.34375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3529,7 +3539,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3544,19 +3554,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3584,23 +3594,23 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>189</v>
@@ -3627,10 +3637,10 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3638,23 +3648,23 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -3666,19 +3676,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3688,7 +3698,7 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3706,10 +3716,10 @@
         <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3751,10 +3761,10 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3762,13 +3772,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
@@ -3778,7 +3788,7 @@
         <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>93</v>
@@ -3790,19 +3800,19 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3827,11 +3837,9 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
         <v>210</v>
       </c>
@@ -3875,10 +3883,10 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3912,7 +3920,7 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>213</v>
@@ -3934,7 +3942,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -3953,7 +3961,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -3986,30 +3994,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4032,19 +4040,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4093,7 +4101,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4108,19 +4116,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4128,10 +4136,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4154,16 +4162,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4213,7 +4221,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4234,13 +4242,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4248,14 +4256,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4274,19 +4282,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4335,7 +4343,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4350,19 +4358,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4370,14 +4378,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4396,19 +4404,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4457,7 +4465,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4472,19 +4480,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4492,10 +4500,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4518,16 +4526,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4577,7 +4585,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4598,13 +4606,13 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4612,10 +4620,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4638,17 +4646,17 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4697,7 +4705,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4712,19 +4720,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4732,10 +4740,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4758,19 +4766,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4819,7 +4827,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4828,7 +4836,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4837,27 +4845,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4880,19 +4888,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4917,13 +4925,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4941,7 +4949,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4950,7 +4958,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4965,7 +4973,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4976,14 +4984,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5002,19 +5010,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5039,13 +5047,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5063,7 +5071,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5081,27 +5089,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5124,19 +5132,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5185,7 +5193,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5206,10 +5214,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5220,10 +5228,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5246,16 +5254,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5281,13 +5289,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5305,7 +5313,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5323,27 +5331,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5366,19 +5374,19 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5403,13 +5411,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5427,7 +5435,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5448,10 +5456,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5462,10 +5470,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5488,16 +5496,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5547,7 +5555,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5565,27 +5573,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5608,16 +5616,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5667,7 +5675,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5685,27 +5693,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5728,19 +5736,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5789,7 +5797,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5801,7 +5809,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5810,10 +5818,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5824,10 +5832,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5850,13 +5858,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5907,7 +5915,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5931,7 +5939,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5942,10 +5950,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5974,7 +5982,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -6027,7 +6035,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6051,7 +6059,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6062,14 +6070,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6091,10 +6099,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6149,7 +6157,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6184,10 +6192,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6210,13 +6218,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6267,7 +6275,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6276,7 +6284,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6288,10 +6296,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6302,10 +6310,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6328,13 +6336,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6385,7 +6393,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6394,7 +6402,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6406,10 +6414,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6420,10 +6428,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6446,19 +6454,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6486,10 +6494,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6507,7 +6515,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6525,13 +6533,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6542,10 +6550,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6568,19 +6576,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6605,13 +6613,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6629,7 +6637,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6647,13 +6655,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6664,10 +6672,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6690,17 +6698,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6749,7 +6757,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6773,7 +6781,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6784,10 +6792,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6810,13 +6818,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6867,7 +6875,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6888,10 +6896,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6902,10 +6910,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6928,16 +6936,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6987,7 +6995,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7008,10 +7016,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7022,10 +7030,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7048,16 +7056,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7107,7 +7115,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7128,10 +7136,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7142,10 +7150,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7168,19 +7176,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7229,7 +7237,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7250,10 +7258,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7264,10 +7272,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7290,13 +7298,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7347,7 +7355,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7371,7 +7379,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7382,10 +7390,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7414,7 +7422,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7467,7 +7475,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7491,7 +7499,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7502,14 +7510,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7531,10 +7539,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7589,7 +7597,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7624,10 +7632,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7650,16 +7658,16 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>216</v>
@@ -7687,13 +7695,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>445</v>
+        <v>218</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7711,7 +7719,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7732,13 +7740,13 @@
         <v>446</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7778,13 +7786,13 @@
         <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>450</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7854,16 +7862,16 @@
         <v>451</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7894,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>453</v>
@@ -7906,7 +7914,7 @@
         <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7931,13 +7939,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7964,7 +7972,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7979,7 +7987,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -7997,7 +8005,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8016,19 +8024,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8053,13 +8061,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8095,19 +8103,19 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -8147,10 +8155,10 @@
         <v>459</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8220,10 +8228,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-what-matters-statement.xlsx
+++ b/StructureDefinition-pco-what-matters-statement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Assessment observation for one aspect of What Matters Most to a person, with a text statement about a focus area.</t>
+    <t>Assessment observation for one aspect of What Matters Most to a person, with a text statement about this well-being domain.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -609,14 +609,11 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>(USCDI) Classification of  type of observation</t>
+    <t>Well-Being observation category</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -651,6 +648,9 @@
   </si>
   <si>
     <t>us-core</t>
+  </si>
+  <si>
+    <t>(USCDI) Classification of  type of observation</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -667,35 +667,10 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
-    <t>Observation.category:wellbeing-domain</t>
-  </si>
-  <si>
-    <t>wellbeing-domain</t>
-  </si>
-  <si>
-    <t>Well-Being domain category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Statement about this category of well-being</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+    <t>Observation.category:wellbeing-category</t>
+  </si>
+  <si>
+    <t>wellbeing-category</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -706,7 +681,26 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>(USCDI) Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -907,7 +901,7 @@
 </t>
   </si>
   <si>
-    <t>Description of what matters for this focus area</t>
+    <t>Description of what matters for this well-being domain</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1420,6 +1414,9 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1795,7 +1792,7 @@
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.34375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.58203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3539,7 +3536,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3554,19 +3551,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3594,23 +3591,23 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>189</v>
@@ -3637,10 +3634,10 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3648,13 +3645,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3676,19 +3673,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3761,10 +3758,10 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3785,10 +3782,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>93</v>
@@ -3800,19 +3797,19 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3822,7 +3819,7 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>82</v>
@@ -3839,9 +3836,11 @@
       <c r="X17" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y17" s="2"/>
+      <c r="Y17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3883,10 +3882,10 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3894,14 +3893,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3920,19 +3919,19 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3942,7 +3941,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -3961,7 +3960,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -3979,7 +3978,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>92</v>
@@ -3994,30 +3993,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4040,19 +4039,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4101,7 +4100,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4116,19 +4115,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4136,10 +4135,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4162,16 +4161,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4221,7 +4220,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4242,13 +4241,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4256,14 +4255,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4282,19 +4281,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4343,7 +4342,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4358,19 +4357,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4378,14 +4377,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4404,19 +4403,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4465,7 +4464,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4480,19 +4479,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4500,10 +4499,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4526,16 +4525,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4585,7 +4584,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4606,13 +4605,13 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4620,10 +4619,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4646,17 +4645,17 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4705,7 +4704,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4720,19 +4719,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4740,10 +4739,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4766,19 +4765,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4827,7 +4826,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4836,7 +4835,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4845,27 +4844,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4888,19 +4887,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4925,14 +4924,14 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4958,7 +4957,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4973,7 +4972,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4984,14 +4983,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5010,19 +5009,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5047,13 +5046,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5071,7 +5070,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5089,27 +5088,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5132,19 +5131,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5193,7 +5192,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5214,10 +5213,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5228,10 +5227,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5254,16 +5253,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5289,14 +5288,14 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5331,27 +5330,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5374,19 +5373,19 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5411,13 +5410,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5435,7 +5434,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5456,10 +5455,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5470,10 +5469,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5496,16 +5495,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5555,7 +5554,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5573,27 +5572,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5616,16 +5615,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5675,7 +5674,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5693,27 +5692,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5736,19 +5735,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5797,7 +5796,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5809,19 +5808,19 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5832,10 +5831,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5858,13 +5857,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5915,7 +5914,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5939,7 +5938,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5950,10 +5949,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5982,7 +5981,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -6035,7 +6034,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6059,7 +6058,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6070,14 +6069,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6099,10 +6098,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6157,7 +6156,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6192,10 +6191,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6218,13 +6217,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6275,7 +6274,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6284,7 +6283,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6296,10 +6295,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6310,10 +6309,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6336,13 +6335,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6393,7 +6392,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6402,7 +6401,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6414,10 +6413,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6428,10 +6427,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6454,19 +6453,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6494,10 +6493,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6515,7 +6514,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6533,13 +6532,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6550,10 +6549,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6576,19 +6575,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6613,13 +6612,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6637,7 +6636,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6655,13 +6654,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6672,10 +6671,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6698,17 +6697,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6757,7 +6756,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6781,7 +6780,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6792,10 +6791,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6818,13 +6817,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6875,7 +6874,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6896,10 +6895,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6910,10 +6909,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6936,16 +6935,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6995,7 +6994,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7016,10 +7015,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7030,10 +7029,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7056,16 +7055,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7115,7 +7114,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7136,10 +7135,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7150,10 +7149,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7176,19 +7175,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7237,7 +7236,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7258,10 +7257,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7272,10 +7271,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7298,13 +7297,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7355,7 +7354,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7379,7 +7378,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7390,10 +7389,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7422,7 +7421,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7475,7 +7474,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7499,7 +7498,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7510,14 +7509,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7539,10 +7538,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7597,7 +7596,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7632,10 +7631,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7658,19 +7657,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7695,13 +7694,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>218</v>
+        <v>444</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7719,7 +7718,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7737,16 +7736,16 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7754,10 +7753,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7780,19 +7779,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7841,7 +7840,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7859,27 +7858,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7902,19 +7901,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7939,14 +7938,14 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -7963,7 +7962,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7972,7 +7971,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7987,7 +7986,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -7998,14 +7997,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8024,19 +8023,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8061,13 +8060,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8085,7 +8084,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8103,27 +8102,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8149,16 +8148,16 @@
         <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8207,7 +8206,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8228,10 +8227,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-what-matters-statement.xlsx
+++ b/StructureDefinition-pco-what-matters-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-statement.xlsx
+++ b/StructureDefinition-pco-what-matters-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
